--- a/Training/39276-2018-EPG.xlsx
+++ b/Training/39276-2018-EPG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\SoftwareProjects\espn-fantasy-football\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glase\SoftwareProjects\espn-fantasy-football\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99560BD1-3688-4C2E-B6AC-479A77F571E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A130BEB-27E7-4CD8-984D-3943CDB67FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Draft+Results" sheetId="1" r:id="rId1"/>
@@ -1855,17 +1855,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>24.471</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>19.373000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>18.113</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>21.268999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>20.913</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>19.745000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>13.675000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>20.875</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>15.882999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>16.838000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>15.811999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>13.225</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>18.273</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>14.044</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>15.675000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>7.8710000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>9.4309999999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>15.462999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>8.2850000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>14.353</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>10.625</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>14.356999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>18.155999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>11.867000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>1.911</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>8.9849999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>11.754</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>6.7359999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>4.7069999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>11.231</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>15.087</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>12.081</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>15.194000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>10.225</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>9.6769999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>11.917</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>18.994</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>11.006</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>11.436</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>6.7809999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>10.430999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>13.894</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>6.6059999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>14.132999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>9.7270000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>9.4440000000000008</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>18.125</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>10.922000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>5.5439999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>5.8250000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>21</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>168</v>
@@ -4353,7 +4353,7 @@
         <v>7.2069999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>6.444</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>9.4359999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>9.3859999999999992</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>10.015000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>5.3380000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>7.4779999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>9.3439999999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>6.6710000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>13.913</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>20.318999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>4.4450000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>14.387</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>8.3469999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>6.306</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>17.163</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>19.771000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>7.2439999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>21</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>236</v>
@@ -5193,7 +5193,7 @@
         <v>3.7669999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>14.141999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>7.5890000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>4.5229999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>13.670999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>8.0939999999999994</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>3.2189999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>6.3730000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>19.919</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>7.9169999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>6.1429999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>7.5060000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>14.569000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>5.0940000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>19.786999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>9.3249999999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>7.1379999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>17.231000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>11.531000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>17.419</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>21</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
         <v>234</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>6.931</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>36</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="s">
         <v>285</v>
@@ -6348,7 +6348,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>8.5670000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>12.119</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>6.5330000000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>3.2559999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>54</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="s">
         <v>334</v>
@@ -6523,7 +6523,7 @@
         <v>3.3170000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>7.556</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>5.0750000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>9.9190000000000005</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>6.8120000000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="s">
         <v>194</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>7.8120000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>8.1880000000000006</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>8.3119999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>8.1880000000000006</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>11.473000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>7.8289999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>8.0879999999999992</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>11.273</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>8.3119999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>8.2309999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>7.0620000000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>12.694000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>6.4379999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>9.3119999999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>7.3120000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>5.3079999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>7.0140000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>-1.875</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>-0.93799999999999994</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>5.8129999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>1.825</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>7.2060000000000004</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>21.780999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>5.7329999999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>10.643000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>7.8120000000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>10.925000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>7.3559999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>17.344000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>25</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190" t="s">
         <v>465</v>
@@ -8518,7 +8518,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>8.625</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>8.625</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>9.625</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>6.6669999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>2.036</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>15.766999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
